--- a/dsa-track-sheet/DSA-tracksheet.xlsx
+++ b/dsa-track-sheet/DSA-tracksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA-tracksheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dsa-work\DSA\dsa-track-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133859CC-D304-47C9-8DC0-9F8BD5F090B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32916CCA-F011-4871-B7BE-DF3470CF8F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="218">
   <si>
     <t>Topic</t>
   </si>
@@ -694,9 +694,6 @@
     <t>Tower of hanoi</t>
   </si>
   <si>
-    <t>Req</t>
-  </si>
-  <si>
     <t>Draw recursion tree and follow the recursion principles</t>
   </si>
   <si>
@@ -707,6 +704,9 @@
   </si>
   <si>
     <t>Print Permutations</t>
+  </si>
+  <si>
+    <t>Recurion tree is not same always</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1565,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2753,7 +2753,7 @@
         <v>164</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>1</v>
@@ -2772,20 +2772,20 @@
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>1</v>
@@ -2807,13 +2807,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>1</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3321,7 +3321,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3438,6 +3438,11 @@
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">

--- a/dsa-track-sheet/DSA-tracksheet.xlsx
+++ b/dsa-track-sheet/DSA-tracksheet.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dsa-work\DSA\dsa-track-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32916CCA-F011-4871-B7BE-DF3470CF8F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D31F52-007F-41AC-ADF1-AD254B9818C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
   </bookViews>
   <sheets>
-    <sheet name="Roadmap of DSA" sheetId="4" r:id="rId1"/>
-    <sheet name="Daily questions Track sheet" sheetId="1" r:id="rId2"/>
-    <sheet name="Daily Update" sheetId="3" r:id="rId3"/>
-    <sheet name="Doubts" sheetId="2" r:id="rId4"/>
-    <sheet name="Revision Update" sheetId="5" r:id="rId5"/>
+    <sheet name="Daily Target" sheetId="6" r:id="rId1"/>
+    <sheet name="Roadmap of DSA" sheetId="4" r:id="rId2"/>
+    <sheet name="Daily questions Track sheet" sheetId="1" r:id="rId3"/>
+    <sheet name="Daily Update" sheetId="3" r:id="rId4"/>
+    <sheet name="Doubts" sheetId="2" r:id="rId5"/>
+    <sheet name="Revision Update" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="221">
   <si>
     <t>Topic</t>
   </si>
@@ -707,6 +708,15 @@
   </si>
   <si>
     <t>Recurion tree is not same always</t>
+  </si>
+  <si>
+    <t>Any how needs to solve 3 problems</t>
+  </si>
+  <si>
+    <t>is 3 question done ?</t>
+  </si>
+  <si>
+    <t>IF not reason</t>
   </si>
 </sst>
 </file>
@@ -752,7 +762,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +829,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -872,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -921,6 +937,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1235,6 +1256,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6EF23C-20FC-406F-ACE2-509B3A9D1D3C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
+        <v>45589</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9086D98F-F4EF-4B97-BC66-991FF1AD62D7}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -1559,13 +1625,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C3F20-9441-4363-A20B-E92D50539D47}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39:C41"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2874,7 +2940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68BFB48-6237-44A1-BCC7-17106A42F822}">
   <dimension ref="A2:D31"/>
   <sheetViews>
@@ -3316,7 +3382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C05120-9C37-4754-BB74-8CFAB90E70C4}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -3454,7 +3520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87149C11-712F-4DC7-88E1-173FC55E9B04}">
   <dimension ref="A1:D3"/>
   <sheetViews>

--- a/dsa-track-sheet/DSA-tracksheet.xlsx
+++ b/dsa-track-sheet/DSA-tracksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dsa-work\DSA\dsa-track-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D31F52-007F-41AC-ADF1-AD254B9818C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB123D1-4067-4463-8D78-2D79AA34564E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Target" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="256">
   <si>
     <t>Topic</t>
   </si>
@@ -717,6 +717,113 @@
   </si>
   <si>
     <t>IF not reason</t>
+  </si>
+  <si>
+    <t>Palindrome Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-number/description/</t>
+  </si>
+  <si>
+    <t>Convert integer into String and check each char by 2 pointer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/roman-to-integer/description/</t>
+  </si>
+  <si>
+    <t>Roman To Integer</t>
+  </si>
+  <si>
+    <t>Iterate String in reverse and  check prev element with current if current is greater then minus it and save as ans</t>
+  </si>
+  <si>
+    <t>get power of each digit and sum for both the string and again convert that sum into binary</t>
+  </si>
+  <si>
+    <t>Not working for large input</t>
+  </si>
+  <si>
+    <t>Bin Manupulation</t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>Number of 1 bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/counting-bits/description/</t>
+  </si>
+  <si>
+    <t>If number is even so number of bits will be same as half of  number bits 
+ex - 18 number of bits will be same as 9
+and If number is odd then number of bits of previous number + 1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-1-bits/</t>
+  </si>
+  <si>
+    <t>take count variable and update if number reminder is 1 with 2 and divide the number by 2</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-number/description/</t>
+  </si>
+  <si>
+    <t>check i with i+1 and compare if both r not equal then return the array of i</t>
+  </si>
+  <si>
+    <t>xOr (^) operator is not clear fully</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/description/</t>
+  </si>
+  <si>
+    <t>Ransom Note</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/ransom-note/description/</t>
+  </si>
+  <si>
+    <t>HashTable</t>
+  </si>
+  <si>
+    <t>Used hashMap</t>
+  </si>
+  <si>
+    <t>5 question</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Occupied in ofc work</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Outside of home (ujjain)</t>
+  </si>
+  <si>
+    <t>Occupied in house clining</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>memoize the result into result array and check if that exist then return from array else call recursion function</t>
   </si>
 </sst>
 </file>
@@ -938,10 +1045,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1257,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6EF23C-20FC-406F-ACE2-509B3A9D1D3C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,10 +1378,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -1288,8 +1395,44 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="34">
+      <c r="A3" s="33">
         <v>45589</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>45590</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>45591</v>
+      </c>
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>45592</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -1627,11 +1770,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C3F20-9441-4363-A20B-E92D50539D47}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2241,9 +2384,15 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="4">
+        <v>45590</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -2870,6 +3019,8 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -2900,6 +3051,256 @@
       <c r="J41" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="4">
+        <v>45589</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="4">
+        <v>45589</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="4">
+        <v>45593</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2934,18 +3335,26 @@
     <hyperlink ref="B36" r:id="rId29" xr:uid="{DBEF156F-46E7-4ABC-BD7D-07B3C0726238}"/>
     <hyperlink ref="B37" r:id="rId30" xr:uid="{D5D353B3-CFB8-49DD-A37B-4B9BE8A8E9A1}"/>
     <hyperlink ref="B38" r:id="rId31" xr:uid="{98574129-D3D4-4BD0-B3D8-2DC8F1C81177}"/>
+    <hyperlink ref="B43" r:id="rId32" xr:uid="{18F4D5FD-E962-477E-B72C-01998BC81735}"/>
+    <hyperlink ref="B44" r:id="rId33" xr:uid="{1015FAEE-E16E-49C3-A0EF-7A6AF90C60A2}"/>
+    <hyperlink ref="B45" r:id="rId34" xr:uid="{D51FB25A-0C2A-4ED6-BC14-E335FF4A3DBD}"/>
+    <hyperlink ref="B46" r:id="rId35" xr:uid="{0E2E5755-8934-433D-8938-2A2CD39610D0}"/>
+    <hyperlink ref="B47" r:id="rId36" xr:uid="{AEA4AC34-1730-412B-BAE4-FA5276A74215}"/>
+    <hyperlink ref="B48" r:id="rId37" xr:uid="{88CCBA4A-3DB5-4214-A612-FB365913C42E}"/>
+    <hyperlink ref="B49" r:id="rId38" xr:uid="{FCFABEF0-D398-4734-9490-622554354EC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68BFB48-6237-44A1-BCC7-17106A42F822}">
-  <dimension ref="A2:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2956,23 +3365,37 @@
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>5</v>
+      <c r="A2" s="25">
+        <v>45559</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>73</v>
@@ -2981,110 +3404,110 @@
         <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
-        <v>45560</v>
+        <v>45561</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
-        <v>45562</v>
+        <v>45563</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
-        <v>45563</v>
+        <v>45564</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
-        <v>45564</v>
+        <v>45567</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
-        <v>45569</v>
+        <v>45570</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>99</v>
@@ -3098,24 +3521,24 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
-        <v>45570</v>
+        <v>45571</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
-        <v>45571</v>
+        <v>45572</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>137</v>
@@ -3126,41 +3549,41 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
-        <v>45572</v>
+        <v>45573</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
-        <v>45574</v>
+        <v>45575</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>121</v>
@@ -3168,7 +3591,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
-        <v>45575</v>
+        <v>45576</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>119</v>
@@ -3185,18 +3608,18 @@
         <v>45576</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
-        <v>45576</v>
+        <v>45577</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>99</v>
@@ -3210,7 +3633,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
-        <v>45577</v>
+        <v>45578</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>99</v>
@@ -3224,13 +3647,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
-        <v>45578</v>
+        <v>45579</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>135</v>
@@ -3238,13 +3661,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
-        <v>45579</v>
+        <v>45580</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>135</v>
@@ -3252,35 +3675,35 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
-        <v>45582</v>
+        <v>45583</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>73</v>
@@ -3294,21 +3717,21 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
-        <v>45583</v>
+        <v>45584</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
-        <v>45584</v>
+        <v>45585</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>180</v>
@@ -3322,21 +3745,21 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
-        <v>45585</v>
+        <v>45586</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
-        <v>45586</v>
+        <v>45587</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>99</v>
@@ -3350,7 +3773,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="25">
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>99</v>
@@ -3364,16 +3787,58 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
-        <v>45588</v>
+        <v>45589</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
+        <v>45590</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="25">
+        <v>45591</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="25">
+        <v>45592</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3387,7 +3852,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3512,7 +3977,9 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dsa-track-sheet/DSA-tracksheet.xlsx
+++ b/dsa-track-sheet/DSA-tracksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dsa-work\DSA\dsa-track-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB123D1-4067-4463-8D78-2D79AA34564E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4920EE97-1F49-41FC-8643-C73A30C87924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Target" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="278">
   <si>
     <t>Topic</t>
   </si>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t xml:space="preserve">Few test cases not passed </t>
-  </si>
-  <si>
-    <t>TC - O(N). SC - O(N)</t>
   </si>
   <si>
     <t>while working on LinkedList then follow below steps -
@@ -521,9 +518,6 @@
     <t>problem was not clear</t>
   </si>
   <si>
-    <t>TC - O(logN). SC - O(logN)</t>
-  </si>
-  <si>
     <t>check with slow and fast pointer, fast will be 2x of slow</t>
   </si>
   <si>
@@ -554,9 +548,6 @@
     <t>facotrial fn se jo value return hoti h wo factorail fn receive krta h</t>
   </si>
   <si>
-    <t>TC O(N)</t>
-  </si>
-  <si>
     <t>Count Of Nodes in Tree</t>
   </si>
   <si>
@@ -582,9 +573,6 @@
   </si>
   <si>
     <t>Preparing for tree cocepts</t>
-  </si>
-  <si>
-    <t>N square</t>
   </si>
   <si>
     <t>swap the left and right node by new swap fucntion</t>
@@ -595,9 +583,6 @@
 then check left tree and right tree</t>
   </si>
   <si>
-    <t>Recursion Theory</t>
-  </si>
-  <si>
     <t>theory of recursion</t>
   </si>
   <si>
@@ -644,9 +629,6 @@
   </si>
   <si>
     <t>Diameter of Binary Tree</t>
-  </si>
-  <si>
-    <t>TC (N*N)</t>
   </si>
   <si>
     <t>Go to everyNode calculate its left height and right height calculate distance and set it to max. (call Height fun)
@@ -677,9 +659,6 @@
     <t>TM complexity question not clear in book</t>
   </si>
   <si>
-    <t>Struggling to manage the new result Linked List for example in reverse and merge of sorted array</t>
-  </si>
-  <si>
     <t>Struggling to calculate TC in recursion</t>
   </si>
   <si>
@@ -714,9 +693,6 @@
   </si>
   <si>
     <t>is 3 question done ?</t>
-  </si>
-  <si>
-    <t>IF not reason</t>
   </si>
   <si>
     <t>Palindrome Number</t>
@@ -811,9 +787,6 @@
     <t>Outside of home (ujjain)</t>
   </si>
   <si>
-    <t>Occupied in house clining</t>
-  </si>
-  <si>
     <t>Climbing Stairs</t>
   </si>
   <si>
@@ -824,13 +797,108 @@
   </si>
   <si>
     <t>memoize the result into result array and check if that exist then return from array else call recursion function</t>
+  </si>
+  <si>
+    <t>Time and space complexity</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Linked List, Stack</t>
+  </si>
+  <si>
+    <t>IF not, reason</t>
+  </si>
+  <si>
+    <t>share 2month plans like question How many questions I need to complete easy , medium, hard 200 question</t>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flood-fill/description/</t>
+  </si>
+  <si>
+    <t>2hr</t>
+  </si>
+  <si>
+    <t>save existing color in oldColor variable
+check the next cell color with oldColor if match then update
+check top, left, down,right</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+  </si>
+  <si>
+    <t>1.5hr</t>
+  </si>
+  <si>
+    <t>O(LogN)</t>
+  </si>
+  <si>
+    <t>Used binary seach</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Check in note section</t>
+  </si>
+  <si>
+    <t>Use hashmap</t>
+  </si>
+  <si>
+    <t>O(N)</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/interview/card/top-interview-questions-easy/93/linked-list/603/</t>
+  </si>
+  <si>
+    <t>Level 0</t>
+  </si>
+  <si>
+    <t>Tried with brute force apporach</t>
+  </si>
+  <si>
+    <t>get size of list then get the toBedeletedSize size-pos and delete the element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/interview/card/top-interview-questions-easy/93/linked-list/553</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>Graph,Binary search</t>
+  </si>
+  <si>
+    <t>1 question old</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +931,22 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -943,7 +1027,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -990,15 +1074,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1037,18 +1146,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1364,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6EF23C-20FC-406F-ACE2-509B3A9D1D3C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,61 +1499,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="34"/>
+      <c r="A1" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>220</v>
+      <c r="B2" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
+      <c r="A3" s="31">
         <v>45589</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
+      <c r="A4" s="31">
         <v>45590</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
+      <c r="A5" s="31">
         <v>45591</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="31">
         <v>45592</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" t="s">
-        <v>251</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45593</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>45594</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>45595</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>45596</v>
+      </c>
+      <c r="B10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>45597</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>45598</v>
+      </c>
+      <c r="B12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>45599</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1622,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B10:C21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,30 +1637,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1500,12 +1674,12 @@
       <c r="F2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>45566</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1522,7 +1696,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1536,12 +1710,12 @@
       <c r="F4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>45560</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1558,7 +1732,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="1"/>
@@ -1569,7 +1743,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="1"/>
@@ -1580,7 +1754,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1594,12 +1768,12 @@
       <c r="F8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>45560</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1616,7 +1790,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1630,12 +1804,12 @@
       <c r="F10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>45561</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1649,15 +1823,17 @@
       <c r="F11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>45553</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1665,10 +1841,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1676,10 +1854,12 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1687,7 +1867,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="1"/>
@@ -1698,7 +1878,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="1"/>
@@ -1709,10 +1889,12 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1720,10 +1902,12 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1731,7 +1915,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="1"/>
@@ -1742,7 +1926,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="1"/>
@@ -1753,7 +1937,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="1"/>
@@ -1770,11 +1954,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C3F20-9441-4363-A20B-E92D50539D47}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1797,215 +1981,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G3" s="39">
         <v>45552</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4">
-        <v>45552</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>45552</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="4">
-        <v>45562</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>45552</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K5" s="4">
-        <v>45585</v>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="3">
+        <v>45562</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9">
-        <v>45553</v>
+      <c r="G6" s="3">
+        <v>45552</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="3">
+        <v>45585</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>45553</v>
       </c>
       <c r="H7" s="1"/>
@@ -2016,24 +2190,24 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="10">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9">
         <v>45553</v>
       </c>
       <c r="H8" s="1"/>
@@ -2042,82 +2216,86 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="D9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9">
         <v>45553</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="10">
-        <v>45554</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="9">
+        <v>45553</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5" t="s">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>45554</v>
       </c>
       <c r="H11" s="1"/>
@@ -2126,85 +2304,83 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="10">
-        <v>45555</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9">
+        <v>45554</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="10">
-        <v>45557</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="G13" s="9">
+        <v>45555</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="4">
-        <v>45559</v>
+      <c r="G14" s="9">
+        <v>45557</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2212,149 +2388,147 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="4">
-        <v>45560</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="G15" s="3">
+        <v>45559</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>45560</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="4">
-        <v>45561</v>
-      </c>
-      <c r="H17" s="22" t="s">
+      <c r="G17" s="3">
+        <v>45560</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3">
         <v>45561</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="H18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>45561</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2362,87 +2536,89 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45563</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45561</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="4">
-        <v>45590</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="4">
-        <v>45567</v>
+      <c r="F21" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45563</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K21" s="3">
+        <v>45590</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="4">
-        <v>45568</v>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45567</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2451,25 +2627,25 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="A23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="3">
         <v>45568</v>
       </c>
       <c r="H23" s="1"/>
@@ -2480,25 +2656,25 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="4">
-        <v>45569</v>
+        <v>44</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45568</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2508,25 +2684,25 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="4">
-        <v>45570</v>
+      <c r="G25" s="3">
+        <v>45569</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2534,827 +2710,1032 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="6" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45572</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>152</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45570</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="4">
-        <v>45573</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
+      <c r="F27" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45572</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="J27" s="22"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="24" t="s">
+      <c r="A28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>45573</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="4">
-        <v>45577</v>
+      <c r="G29" s="3">
+        <v>45573</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="4">
-        <v>45578</v>
+      <c r="G30" s="3">
+        <v>45577</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45578</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="29" t="s">
         <v>164</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="4">
-        <v>45579</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>45579</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J32" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="4">
-        <v>45580</v>
+        <v>9</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45579</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="6" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>45580</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>179</v>
+        <v>173</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="6" t="s">
+    <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="4">
-        <v>45582</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>184</v>
+        <v>44</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45580</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="A36" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>45582</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="A37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F37" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="4">
-        <v>45583</v>
+      <c r="G37" s="3">
+        <v>45582</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="6" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>45583</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>198</v>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="6" t="s">
+    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="4">
-        <v>45586</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="G39" s="3">
+        <v>45583</v>
+      </c>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1" t="s">
-        <v>213</v>
+      <c r="J39" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>214</v>
+      <c r="A40" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="4">
-        <v>45587</v>
+      <c r="G40" s="3">
+        <v>45586</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>216</v>
+      <c r="A41" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="4">
-        <v>45588</v>
+      <c r="G41" s="3">
+        <v>45587</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="4">
-        <v>45589</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="G42" s="3">
+        <v>45588</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C43" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <v>45589</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="4">
-        <v>45590</v>
+      <c r="G44" s="3">
+        <v>45589</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>233</v>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>45590</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>235</v>
+      <c r="I45" s="1"/>
+      <c r="J45" s="21" t="s">
+        <v>225</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C46" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <v>45590</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <v>45590</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D48" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <v>45590</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D49" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="4">
-        <v>45593</v>
+      <c r="G49" s="3">
+        <v>45590</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="3">
+        <v>45593</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="3">
+        <v>45595</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="3">
+        <v>45596</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="3">
+        <v>45600</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="3">
+        <v>45600</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="3">
+        <v>45601</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="57" spans="1:12" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A57" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="3">
+        <v>45602</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K58" s="3">
+        <v>45604</v>
+      </c>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="3">
+        <v>45604</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1D1C03CB-AB2E-4B75-A73B-B21B504A22D1}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{1E9B91F8-5437-42AE-AEA7-4E9E610F4D99}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{D2694BA8-F6F6-4D53-9633-0D18230B2D2C}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{47730E0C-D508-4A44-BC0D-B1FD0E4E9ECF}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{7D6383A1-3A58-4E36-924E-7EAACD487EC0}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{E9C835E5-FFD9-41DE-94E7-F26910468787}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{6D3FC561-A0D1-4A5A-BD30-D0AC26C66634}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{4A81FCEE-7A0E-40BC-8664-FB1D9356A1ED}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{5471F630-2AAF-4830-948B-32A8F9B365F8}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{2E8CC9FC-E166-4DE2-89DA-2DECB3A95308}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{8054874B-4CB2-4F95-A5A5-E339B0BCD08A}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{2465354C-78FD-4044-8F12-3ECA32ACCDF5}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{2A9446F3-7FFF-49EA-AA7A-6EEE7C0F7E93}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{3459EA40-7268-4183-A60E-B24DD2E45ACE}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{F1C3BE45-4A68-46F1-AEA4-54EFA871FAD0}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{D1433D4D-CC5B-48CA-8CF1-3FD9AE5149E0}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{06C409A3-34B7-4324-A53A-755A63B798B6}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{D62E1741-BC46-4E50-A423-B06710D26B13}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{E39897F4-D7AF-4742-89F6-6864658E5381}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{C4BA99C4-7D5B-4B53-A6A7-B9DB81A545BD}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{A8789F35-7CA2-47E0-851B-EE5B19C311C6}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{72AE51F0-4240-4017-BD99-98D6BF9F2C54}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{DD64E4C9-8A02-4411-A882-2B61115C7FCE}"/>
-    <hyperlink ref="B27" r:id="rId24" xr:uid="{EA07DECB-D7BD-4363-965F-2C5E9E091E39}"/>
-    <hyperlink ref="B32" r:id="rId25" xr:uid="{2ABDDE51-B5DF-43FC-AE9F-EB6503BFBEC8}"/>
-    <hyperlink ref="B35" r:id="rId26" xr:uid="{0A36C549-FAF5-41F7-A8D9-23BF884ADBE5}"/>
-    <hyperlink ref="B34" r:id="rId27" xr:uid="{0D88DCB1-A875-4C2D-894B-0312F45B03C7}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{5F102C6A-2FDF-4435-9B8E-24B91708F22E}"/>
-    <hyperlink ref="B36" r:id="rId29" xr:uid="{DBEF156F-46E7-4ABC-BD7D-07B3C0726238}"/>
-    <hyperlink ref="B37" r:id="rId30" xr:uid="{D5D353B3-CFB8-49DD-A37B-4B9BE8A8E9A1}"/>
-    <hyperlink ref="B38" r:id="rId31" xr:uid="{98574129-D3D4-4BD0-B3D8-2DC8F1C81177}"/>
-    <hyperlink ref="B43" r:id="rId32" xr:uid="{18F4D5FD-E962-477E-B72C-01998BC81735}"/>
-    <hyperlink ref="B44" r:id="rId33" xr:uid="{1015FAEE-E16E-49C3-A0EF-7A6AF90C60A2}"/>
-    <hyperlink ref="B45" r:id="rId34" xr:uid="{D51FB25A-0C2A-4ED6-BC14-E335FF4A3DBD}"/>
-    <hyperlink ref="B46" r:id="rId35" xr:uid="{0E2E5755-8934-433D-8938-2A2CD39610D0}"/>
-    <hyperlink ref="B47" r:id="rId36" xr:uid="{AEA4AC34-1730-412B-BAE4-FA5276A74215}"/>
-    <hyperlink ref="B48" r:id="rId37" xr:uid="{88CCBA4A-3DB5-4214-A612-FB365913C42E}"/>
-    <hyperlink ref="B49" r:id="rId38" xr:uid="{FCFABEF0-D398-4734-9490-622554354EC0}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{1D1C03CB-AB2E-4B75-A73B-B21B504A22D1}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{1E9B91F8-5437-42AE-AEA7-4E9E610F4D99}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{D2694BA8-F6F6-4D53-9633-0D18230B2D2C}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{47730E0C-D508-4A44-BC0D-B1FD0E4E9ECF}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{7D6383A1-3A58-4E36-924E-7EAACD487EC0}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{E9C835E5-FFD9-41DE-94E7-F26910468787}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{6D3FC561-A0D1-4A5A-BD30-D0AC26C66634}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{4A81FCEE-7A0E-40BC-8664-FB1D9356A1ED}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{5471F630-2AAF-4830-948B-32A8F9B365F8}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{2E8CC9FC-E166-4DE2-89DA-2DECB3A95308}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{8054874B-4CB2-4F95-A5A5-E339B0BCD08A}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{2465354C-78FD-4044-8F12-3ECA32ACCDF5}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{2A9446F3-7FFF-49EA-AA7A-6EEE7C0F7E93}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{3459EA40-7268-4183-A60E-B24DD2E45ACE}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{F1C3BE45-4A68-46F1-AEA4-54EFA871FAD0}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{D1433D4D-CC5B-48CA-8CF1-3FD9AE5149E0}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{06C409A3-34B7-4324-A53A-755A63B798B6}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{D62E1741-BC46-4E50-A423-B06710D26B13}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{E39897F4-D7AF-4742-89F6-6864658E5381}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{C4BA99C4-7D5B-4B53-A6A7-B9DB81A545BD}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{A8789F35-7CA2-47E0-851B-EE5B19C311C6}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{72AE51F0-4240-4017-BD99-98D6BF9F2C54}"/>
+    <hyperlink ref="B27" r:id="rId23" xr:uid="{DD64E4C9-8A02-4411-A882-2B61115C7FCE}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{EA07DECB-D7BD-4363-965F-2C5E9E091E39}"/>
+    <hyperlink ref="B33" r:id="rId25" xr:uid="{2ABDDE51-B5DF-43FC-AE9F-EB6503BFBEC8}"/>
+    <hyperlink ref="B36" r:id="rId26" xr:uid="{0A36C549-FAF5-41F7-A8D9-23BF884ADBE5}"/>
+    <hyperlink ref="B35" r:id="rId27" xr:uid="{0D88DCB1-A875-4C2D-894B-0312F45B03C7}"/>
+    <hyperlink ref="B34" r:id="rId28" xr:uid="{5F102C6A-2FDF-4435-9B8E-24B91708F22E}"/>
+    <hyperlink ref="B37" r:id="rId29" xr:uid="{DBEF156F-46E7-4ABC-BD7D-07B3C0726238}"/>
+    <hyperlink ref="B38" r:id="rId30" xr:uid="{D5D353B3-CFB8-49DD-A37B-4B9BE8A8E9A1}"/>
+    <hyperlink ref="B39" r:id="rId31" xr:uid="{98574129-D3D4-4BD0-B3D8-2DC8F1C81177}"/>
+    <hyperlink ref="B44" r:id="rId32" xr:uid="{18F4D5FD-E962-477E-B72C-01998BC81735}"/>
+    <hyperlink ref="B45" r:id="rId33" xr:uid="{1015FAEE-E16E-49C3-A0EF-7A6AF90C60A2}"/>
+    <hyperlink ref="B46" r:id="rId34" xr:uid="{D51FB25A-0C2A-4ED6-BC14-E335FF4A3DBD}"/>
+    <hyperlink ref="B47" r:id="rId35" xr:uid="{0E2E5755-8934-433D-8938-2A2CD39610D0}"/>
+    <hyperlink ref="B48" r:id="rId36" xr:uid="{AEA4AC34-1730-412B-BAE4-FA5276A74215}"/>
+    <hyperlink ref="B49" r:id="rId37" xr:uid="{88CCBA4A-3DB5-4214-A612-FB365913C42E}"/>
+    <hyperlink ref="B50" r:id="rId38" xr:uid="{FCFABEF0-D398-4734-9490-622554354EC0}"/>
+    <hyperlink ref="B53" r:id="rId39" xr:uid="{1876B3AB-E35C-432B-8A08-50D3CE04C51F}"/>
+    <hyperlink ref="B54" r:id="rId40" xr:uid="{EE63FDD8-D171-44C8-B7B5-649CC652B33A}"/>
+    <hyperlink ref="B55" r:id="rId41" xr:uid="{5E9D841B-B633-4AA6-86FD-87FA83CE9551}"/>
+    <hyperlink ref="B59" r:id="rId42" xr:uid="{F83E37E9-FA94-4685-B081-455478BD41CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68BFB48-6237-44A1-BCC7-17106A42F822}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3366,24 +3747,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>45559</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3394,10 +3775,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>45560</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3408,10 +3789,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>45561</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3422,10 +3803,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>45562</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3436,10 +3817,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>45563</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3450,10 +3831,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>45564</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3464,10 +3845,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>45567</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3478,10 +3859,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>45568</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3492,10 +3873,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>45569</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3506,10 +3887,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>45570</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3520,10 +3901,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>45571</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3534,11 +3915,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>45572</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>158</v>
+      <c r="B13" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>137</v>
@@ -3548,10 +3929,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>45573</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3562,234 +3943,234 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <v>45574</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>45575</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>45576</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>45576</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>45577</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <v>45578</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <v>45579</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>45580</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <v>45581</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>180</v>
+      <c r="B23" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>45582</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="25">
+      <c r="A25" s="24">
         <v>45583</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="25">
+      <c r="A26" s="24">
         <v>45584</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>180</v>
+      <c r="B26" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>45585</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>180</v>
+      <c r="B27" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <v>45586</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="24">
         <v>45587</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="24">
         <v>45588</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="A31" s="24">
         <v>45589</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3800,45 +4181,199 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="A32" s="24">
         <v>45590</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>246</v>
+      <c r="B32" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
+      <c r="A33" s="24">
         <v>45591</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>180</v>
+      <c r="B33" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <v>45592</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>180</v>
+      <c r="B34" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
+        <v>45593</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
+        <v>45594</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
+        <v>45595</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
+        <v>45596</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
+        <v>45598</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
+        <v>45599</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
+        <v>45600</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="24">
+        <v>45601</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="24">
+        <v>45602</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="24">
+        <v>45603</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
+        <v>45604</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3849,10 +4384,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C05120-9C37-4754-BB74-8CFAB90E70C4}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3863,43 +4398,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C4" t="s">
@@ -3907,10 +4442,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C5" t="s">
@@ -3918,43 +4453,43 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.4" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.4" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C9" t="s">
@@ -3962,24 +4497,27 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>207</v>
+      <c r="A10" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>208</v>
+      <c r="A11" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>217</v>
+      <c r="A12" s="10" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>239</v>
-      </c>
+      <c r="A13" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3992,22 +4530,22 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4022,7 +4560,7 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>45571</v>
       </c>
       <c r="B3" s="1" t="s">

--- a/dsa-track-sheet/DSA-tracksheet.xlsx
+++ b/dsa-track-sheet/DSA-tracksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dsa-work\DSA\dsa-track-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4920EE97-1F49-41FC-8643-C73A30C87924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2EA928-161F-4C82-8261-A3B44B174CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Target" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Daily Update" sheetId="3" r:id="rId4"/>
     <sheet name="Doubts" sheetId="2" r:id="rId5"/>
     <sheet name="Revision Update" sheetId="5" r:id="rId6"/>
+    <sheet name="Goal" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="304">
   <si>
     <t>Topic</t>
   </si>
@@ -893,12 +894,90 @@
   <si>
     <t>1 question old</t>
   </si>
+  <si>
+    <t>DSA -intermediate</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>System Design HLD LLD</t>
+  </si>
+  <si>
+    <t>Desgin Patterns</t>
+  </si>
+  <si>
+    <t>Fab</t>
+  </si>
+  <si>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>Springboot,Microservices desgin pattern</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>1month</t>
+  </si>
+  <si>
+    <t>1.5month</t>
+  </si>
+  <si>
+    <t>Kafka, Kubernetes</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Interview prepration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3month </t>
+  </si>
+  <si>
+    <t>Along with 3 DSA questions</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <t>My 6month Goal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/interview/card/top-interview-questions-easy/94/trees/625/</t>
+  </si>
+  <si>
+    <t>Validate Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/interview/card/top-interview-questions-easy/94/trees/628/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level1 </t>
+  </si>
+  <si>
+    <t>O(N^2</t>
+  </si>
+  <si>
+    <t>Used RPA trick remove print add-child using queue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,8 +1031,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,6 +1109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1165,11 +1257,27 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1499,10 +1607,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
@@ -1954,11 +2062,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C3F20-9441-4363-A20B-E92D50539D47}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3616,7 +3724,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="43" t="s">
         <v>268</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3652,7 +3760,7 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="44" t="s">
+      <c r="A59" t="s">
         <v>274</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3661,7 +3769,9 @@
       <c r="C59" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E59" s="1" t="s">
         <v>19</v>
       </c>
@@ -3678,6 +3788,58 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="3">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="3">
+        <v>45607</v>
+      </c>
+      <c r="H61" t="s">
+        <v>301</v>
+      </c>
+      <c r="I61" t="s">
+        <v>302</v>
+      </c>
+      <c r="J61" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3723,9 +3885,11 @@
     <hyperlink ref="B54" r:id="rId40" xr:uid="{EE63FDD8-D171-44C8-B7B5-649CC652B33A}"/>
     <hyperlink ref="B55" r:id="rId41" xr:uid="{5E9D841B-B633-4AA6-86FD-87FA83CE9551}"/>
     <hyperlink ref="B59" r:id="rId42" xr:uid="{F83E37E9-FA94-4685-B081-455478BD41CB}"/>
+    <hyperlink ref="B60" r:id="rId43" xr:uid="{DD3BB508-7347-4046-BC82-41CB7F9903D2}"/>
+    <hyperlink ref="B61" r:id="rId44" xr:uid="{DE3E1EF4-243D-4156-8A42-2CDCDAB5E384}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
 
@@ -3733,7 +3897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68BFB48-6237-44A1-BCC7-17106A42F822}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
@@ -4576,4 +4740,213 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A334A5-B536-4271-BF4D-09433FEC1B29}">
+  <dimension ref="H6:V12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="8:22" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="H6" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="V6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H7" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H8" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="U8" s="47"/>
+    </row>
+    <row r="9" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I9" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="U9" s="47"/>
+    </row>
+    <row r="10" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I10" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="U10" s="47"/>
+    </row>
+    <row r="11" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I11" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="U11" s="47"/>
+    </row>
+    <row r="12" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I12" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="T12" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="U12" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dsa-track-sheet/DSA-tracksheet.xlsx
+++ b/dsa-track-sheet/DSA-tracksheet.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dsa-work\DSA\dsa-track-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2EA928-161F-4C82-8261-A3B44B174CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B793360-E668-40FC-9B56-0D7A08952ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Target" sheetId="6" r:id="rId1"/>
     <sheet name="Roadmap of DSA" sheetId="4" r:id="rId2"/>
-    <sheet name="Daily questions Track sheet" sheetId="1" r:id="rId3"/>
-    <sheet name="Daily Update" sheetId="3" r:id="rId4"/>
-    <sheet name="Doubts" sheetId="2" r:id="rId5"/>
-    <sheet name="Revision Update" sheetId="5" r:id="rId6"/>
-    <sheet name="Goal" sheetId="7" r:id="rId7"/>
+    <sheet name="scalerProblemsTrack" sheetId="8" r:id="rId3"/>
+    <sheet name="Daily questions Track sheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Daily Update" sheetId="3" r:id="rId5"/>
+    <sheet name="Doubts" sheetId="2" r:id="rId6"/>
+    <sheet name="Revision Update" sheetId="5" r:id="rId7"/>
+    <sheet name="Goal" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="320">
   <si>
     <t>Topic</t>
   </si>
@@ -898,15 +899,9 @@
     <t>DSA -intermediate</t>
   </si>
   <si>
-    <t>Oct</t>
-  </si>
-  <si>
     <t>Dec</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
     <t>System Design HLD LLD</t>
   </si>
   <si>
@@ -934,9 +929,6 @@
     <t>Kafka, Kubernetes</t>
   </si>
   <si>
-    <t>Apr</t>
-  </si>
-  <si>
     <t>Interview prepration</t>
   </si>
   <si>
@@ -971,6 +963,63 @@
   </si>
   <si>
     <t>Used RPA trick remove print add-child using queue</t>
+  </si>
+  <si>
+    <t>Convert Sorted array to binary tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/interview/card/top-interview-questions-easy/94/trees/631/</t>
+  </si>
+  <si>
+    <t>Used Binary search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/interview/card/top-interview-questions-easy/94/trees/627/</t>
+  </si>
+  <si>
+    <t>O(logN)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/interview/card/top-interview-questions-easy/92/array/564/</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>3month</t>
+  </si>
+  <si>
+    <t>20day</t>
+  </si>
+  <si>
+    <t>Parallal</t>
+  </si>
+  <si>
+    <t>Range Sum Query</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276572/assignment/problems/15991/?navref=cl_pb_nv_tb</t>
+  </si>
+  <si>
+    <t>First Attempt Date</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>O(n) , O(n)</t>
+  </si>
+  <si>
+    <t>Used prefixSum approach</t>
+  </si>
+  <si>
+    <t>Leader In Array</t>
+  </si>
+  <si>
+    <t>0(n^2), O(1)</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1088,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,6 +1164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1259,14 +1314,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -1277,7 +1335,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1607,10 +1665,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
@@ -2061,12 +2119,129 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C2562B-8807-4C83-9323-6867A160C42C}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="47">
+        <v>45647</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{AB44A35B-FB2D-45F4-95B0-A540E16FCA4C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C3F20-9441-4363-A20B-E92D50539D47}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3791,10 +3966,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>298</v>
-      </c>
-      <c r="B60" s="51" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>294</v>
       </c>
       <c r="C60" s="44" t="s">
         <v>157</v>
@@ -3811,10 +3986,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>299</v>
-      </c>
-      <c r="B61" s="51" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>297</v>
       </c>
       <c r="C61" s="44" t="s">
         <v>157</v>
@@ -3832,13 +4007,97 @@
         <v>45607</v>
       </c>
       <c r="H61" t="s">
+        <v>298</v>
+      </c>
+      <c r="I61" t="s">
+        <v>299</v>
+      </c>
+      <c r="J61" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>301</v>
       </c>
-      <c r="I61" t="s">
+      <c r="B62" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="J61" t="s">
+      <c r="C62" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="31">
+        <v>45610</v>
+      </c>
+      <c r="H62" t="s">
+        <v>298</v>
+      </c>
+      <c r="I62" t="s">
+        <v>305</v>
+      </c>
+      <c r="J62" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="31">
+        <v>45610</v>
+      </c>
+      <c r="H63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="31">
+        <v>45623</v>
+      </c>
+      <c r="H64" t="s">
+        <v>298</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3887,19 +4146,22 @@
     <hyperlink ref="B59" r:id="rId42" xr:uid="{F83E37E9-FA94-4685-B081-455478BD41CB}"/>
     <hyperlink ref="B60" r:id="rId43" xr:uid="{DD3BB508-7347-4046-BC82-41CB7F9903D2}"/>
     <hyperlink ref="B61" r:id="rId44" xr:uid="{DE3E1EF4-243D-4156-8A42-2CDCDAB5E384}"/>
+    <hyperlink ref="B62" r:id="rId45" xr:uid="{ACC00306-F953-4B94-8895-CB745EE6D15E}"/>
+    <hyperlink ref="B63" r:id="rId46" xr:uid="{927878D7-E322-4578-AFAD-FB6ED161EB10}"/>
+    <hyperlink ref="B64" r:id="rId47" xr:uid="{7C9006C6-2F9D-4515-86CF-2645FA79BC8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId45"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68BFB48-6237-44A1-BCC7-17106A42F822}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4540,18 +4802,60 @@
         <v>135</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="24">
+        <v>45605</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="24">
+        <v>45607</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
+        <v>45623</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C05120-9C37-4754-BB74-8CFAB90E70C4}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4689,12 +4993,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87149C11-712F-4DC7-88E1-173FC55E9B04}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4742,12 +5046,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A334A5-B536-4271-BF4D-09433FEC1B29}">
-  <dimension ref="H6:V12"/>
+  <dimension ref="H6:V15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4758,170 +5062,177 @@
   </cols>
   <sheetData>
     <row r="6" spans="8:22" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="H6" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
+      <c r="H6" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
       <c r="V6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47" t="s">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47" t="s">
+      <c r="N7" s="49"/>
+      <c r="O7" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H8" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H8" s="47" t="s">
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="U8" s="49"/>
+    </row>
+    <row r="9" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I9" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47" t="s">
+      <c r="N9" s="49"/>
+      <c r="O9" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="U9" s="49"/>
+    </row>
+    <row r="12" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
         <v>288</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="U8" s="47"/>
-    </row>
-    <row r="9" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="I9" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="47" t="s">
+      <c r="M12" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="R12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I13" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="U9" s="47"/>
-    </row>
-    <row r="10" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="I10" s="47" t="s">
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="U13" s="49"/>
+    </row>
+    <row r="14" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I14" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47" t="s">
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="U14" s="49"/>
+    </row>
+    <row r="15" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I15" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="U10" s="47"/>
-    </row>
-    <row r="11" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="I11" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="47" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="T15" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="U11" s="47"/>
-    </row>
-    <row r="12" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="I12" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="T12" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="U12" s="47"/>
+      <c r="U15" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M10:N10"/>
+  <mergeCells count="27">
+    <mergeCell ref="I13:L13"/>
     <mergeCell ref="H6:S6"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="M7:N7"/>
@@ -4930,22 +5241,24 @@
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dsa-track-sheet/DSA-tracksheet.xlsx
+++ b/dsa-track-sheet/DSA-tracksheet.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dsa-work\DSA\dsa-track-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B793360-E668-40FC-9B56-0D7A08952ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79C2085-71F7-4601-AD36-A2F6FADA22C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACC6A297-66BE-4056-8F0D-CD389159DB30}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Target" sheetId="6" r:id="rId1"/>
-    <sheet name="Roadmap of DSA" sheetId="4" r:id="rId2"/>
-    <sheet name="scalerProblemsTrack" sheetId="8" r:id="rId3"/>
+    <sheet name="scalerProblemsTrack" sheetId="8" r:id="rId2"/>
+    <sheet name="Roadmap of DSA" sheetId="4" r:id="rId3"/>
     <sheet name="Daily questions Track sheet" sheetId="1" r:id="rId4"/>
-    <sheet name="Daily Update" sheetId="3" r:id="rId5"/>
-    <sheet name="Doubts" sheetId="2" r:id="rId6"/>
-    <sheet name="Revision Update" sheetId="5" r:id="rId7"/>
-    <sheet name="Goal" sheetId="7" r:id="rId8"/>
+    <sheet name="Doubts" sheetId="2" r:id="rId5"/>
+    <sheet name="Revision Update" sheetId="5" r:id="rId6"/>
+    <sheet name="Goal" sheetId="7" r:id="rId7"/>
+    <sheet name="Daily Update" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="370">
   <si>
     <t>Topic</t>
   </si>
@@ -373,15 +373,9 @@
     <t>1 submitted</t>
   </si>
   <si>
-    <t>28,29 sep</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
-    <t>Sat,Sun</t>
-  </si>
-  <si>
     <t>Completed MSQ question on interviewbit</t>
   </si>
   <si>
@@ -455,12 +449,6 @@
   </si>
   <si>
     <t>Linked List</t>
-  </si>
-  <si>
-    <t>sun</t>
-  </si>
-  <si>
-    <t>Basic Is done</t>
   </si>
   <si>
     <t>Time/Space Complexity</t>
@@ -1013,13 +1001,175 @@
     <t>O(n) , O(n)</t>
   </si>
   <si>
-    <t>Used prefixSum approach</t>
-  </si>
-  <si>
-    <t>Leader In Array</t>
-  </si>
-  <si>
-    <t>0(n^2), O(1)</t>
+    <t>2 Array question</t>
+  </si>
+  <si>
+    <t>3 Array question</t>
+  </si>
+  <si>
+    <t>Special Index</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276572/assignment/problems/12828?navref=cl_tt_lst_nm</t>
+  </si>
+  <si>
+    <t>Equilibrium index of an array</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276572/homework/problems/12826?navref=cl_tt_lst_nm</t>
+  </si>
+  <si>
+    <t>Closest MinMax</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276571/assignment/problems/986?navref=cl_tt_lst_nm</t>
+  </si>
+  <si>
+    <t>Special Subsequences "AG" - 2</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276571/assignment/problems/36553?navref=cl_tt_nv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leaders in an array</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276571/homework/problems/11921?navref=cl_tt_lst_nm</t>
+  </si>
+  <si>
+    <t>Sum of All Subarrays</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276569/assignment/problems/14363?navref=cl_tt_lst_nm</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276569/assignment/problems/30351?navref=cl_tt_lst_nm</t>
+  </si>
+  <si>
+    <t>Subarray with given sum and length</t>
+  </si>
+  <si>
+    <t>Subarray with least average</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276569/homework/problems?navref=cl_tb_br</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefixSum of even and odd index </t>
+  </si>
+  <si>
+    <t>PrefixSum</t>
+  </si>
+  <si>
+    <t>PreFixSum</t>
+  </si>
+  <si>
+    <t>Sliding window</t>
+  </si>
+  <si>
+    <t>CarryForward</t>
+  </si>
+  <si>
+    <t>Column Sum</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276577/assignment/problems/11433?navref=cl_tt_nv</t>
+  </si>
+  <si>
+    <t>2D Array</t>
+  </si>
+  <si>
+    <t>2 loop</t>
+  </si>
+  <si>
+    <t>O(n^2), O(1)</t>
+  </si>
+  <si>
+    <t>Main Diagonal Sum</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276577/assignment/problems/11465?navref=cl_tt_nv</t>
+  </si>
+  <si>
+    <t>Anti Diagonals</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276577/assignment/problems/293?navref=cl_tt_nv</t>
+  </si>
+  <si>
+    <t>Matrix Transpose</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276577/assignment/problems/11615?navref=cl_tt_nv</t>
+  </si>
+  <si>
+    <t>Rotate Matrix</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276577/assignment/problems/55/?navref=cl_pb_nv_tb</t>
+  </si>
+  <si>
+    <t>Matrix Scalar Product</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276577/homework/problems/11613?navref=cl_tt_lst_nm</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>Add the matrices</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276577/homework/problems/11616?navref=cl_tt_nv</t>
+  </si>
+  <si>
+    <t>Very Easy</t>
+  </si>
+  <si>
+    <t>Minor Diagonal Sum</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276577/homework/problems/11466?navref=cl_tt_nv</t>
+  </si>
+  <si>
+    <t>O(n), O(1)</t>
+  </si>
+  <si>
+    <t>Row Sum</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276577/homework/problems/11437?navref=cl_tt_nv</t>
+  </si>
+  <si>
+    <t>1 loop</t>
+  </si>
+  <si>
+    <t>2 , 2DArray question</t>
+  </si>
+  <si>
+    <t>7 , 2DArray question</t>
+  </si>
+  <si>
+    <t>New year 2025</t>
+  </si>
+  <si>
+    <t>Joined scaler on 09Dec2024</t>
+  </si>
+  <si>
+    <t>Add two Binary String</t>
+  </si>
+  <si>
+    <t>https://www.scaler.com/academy/mentee-dashboard/class/276578/assignment/problems/189?navref=cl_tt_lst_nm</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Revison</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,6 +1323,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1252,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1316,11 +1478,35 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1332,10 +1518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1651,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6EF23C-20FC-406F-ACE2-509B3A9D1D3C}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,20 +1848,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="48"/>
+      <c r="A1" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1686,10 +1869,10 @@
         <v>45589</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1697,7 +1880,7 @@
         <v>45590</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1705,10 +1888,10 @@
         <v>45591</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1716,7 +1899,7 @@
         <v>45592</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1724,7 +1907,7 @@
         <v>45593</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1732,7 +1915,7 @@
         <v>45594</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1740,7 +1923,7 @@
         <v>45595</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1748,7 +1931,7 @@
         <v>45596</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1756,7 +1939,7 @@
         <v>45597</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1764,7 +1947,7 @@
         <v>45598</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1772,18 +1955,983 @@
         <v>45599</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>45651</v>
+      </c>
+      <c r="B16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>45652</v>
+      </c>
+      <c r="B17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>45653</v>
+      </c>
+      <c r="B18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>45653</v>
+      </c>
+      <c r="B19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
+        <v>45654</v>
+      </c>
+      <c r="B20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>45655</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
+        <v>45656</v>
+      </c>
+      <c r="B22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
+        <v>45657</v>
+      </c>
+      <c r="B23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="56">
+        <v>45658</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="65">
+        <v>45659</v>
+      </c>
+      <c r="B25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="65">
+        <v>45660</v>
+      </c>
+      <c r="B26" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C2562B-8807-4C83-9323-6867A160C42C}">
+  <dimension ref="A1:L120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" customWidth="1"/>
+    <col min="9" max="9" width="39" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="52">
+        <v>45647</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="47"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="47"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>341</v>
+      </c>
+      <c r="I11" s="53">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>341</v>
+      </c>
+      <c r="I12" s="53">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>341</v>
+      </c>
+      <c r="I13" s="53">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>341</v>
+      </c>
+      <c r="I14" s="53">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>341</v>
+      </c>
+      <c r="I15" s="53">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>341</v>
+      </c>
+      <c r="I16" s="53">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" t="s">
+        <v>352</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>341</v>
+      </c>
+      <c r="I17" s="53">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" t="s">
+        <v>361</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>358</v>
+      </c>
+      <c r="I18" s="53">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s">
+        <v>341</v>
+      </c>
+      <c r="I19" s="53">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>358</v>
+      </c>
+      <c r="I20" s="53">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="47"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="47"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="47"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="47"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="47"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="47"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="47"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="47"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="47"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="47"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="47"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="47"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="47"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="47"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="47"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="47"/>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="47"/>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="47"/>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="47"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="47"/>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="47"/>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="47"/>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="47"/>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I47" s="47"/>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="47"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="47"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="47"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I51" s="47"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I52" s="47"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="47"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="47"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I55" s="47"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I56" s="47"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I57" s="47"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I58" s="47"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I59" s="47"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I60" s="47"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I61" s="47"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I62" s="47"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I63" s="47"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I64" s="47"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="47"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="47"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I67" s="47"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I68" s="47"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I69" s="47"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I70" s="47"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I71" s="47"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I72" s="47"/>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I73" s="47"/>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I74" s="47"/>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I75" s="47"/>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I76" s="47"/>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I77" s="47"/>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I78" s="47"/>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I79" s="47"/>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I80" s="47"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="47"/>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I82" s="47"/>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I83" s="47"/>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I84" s="47"/>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I85" s="47"/>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I86" s="47"/>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I87" s="47"/>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I88" s="47"/>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I89" s="47"/>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I90" s="47"/>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I91" s="47"/>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I92" s="47"/>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I93" s="47"/>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I94" s="47"/>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I95" s="47"/>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I96" s="47"/>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I97" s="47"/>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I98" s="47"/>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I99" s="47"/>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I100" s="47"/>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I101" s="47"/>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I102" s="47"/>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I103" s="47"/>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I104" s="47"/>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I105" s="47"/>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I106" s="47"/>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I107" s="47"/>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I108" s="47"/>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I109" s="47"/>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I110" s="47"/>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I111" s="47"/>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I112" s="47"/>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I113" s="47"/>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I114" s="47"/>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I115" s="47"/>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I116" s="47"/>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I117" s="47"/>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I118" s="47"/>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I119" s="47"/>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I120" s="47"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{AB44A35B-FB2D-45F4-95B0-A540E16FCA4C}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{2AA94B66-CB7D-4676-B84A-2580DA2D4BFB}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{2D64DBE5-1A3A-41EA-B6BB-126F4749FBC4}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{CB6D5E41-E7C5-4014-9FE1-AE0FFC8365E8}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{5BECD8FC-86F0-41A7-A6D8-BA0B55C29CA3}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{5B9F9940-2C02-4F20-8F76-7BE2350985E7}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{9C5F1CC7-C99C-4188-830F-9557B5C9DD01}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{8D0426A9-21A6-4FDB-A938-9929CA48B61E}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{E7FF5791-EB39-40F2-BC27-73B663F850DA}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{B051A44F-4BD2-41D3-B354-43B69EC23B35}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{7BA329BA-DAAA-43D6-BB84-3EFD9C9CBA3E}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{2928FA17-33BB-4B00-899A-F4F9513176F1}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{1777B617-2731-4785-BA9A-16690DCB4C85}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{98B99A26-94AA-48A8-ADF5-C473CADE3F3C}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{6D80D106-F6D4-4B47-A8D6-F4998B4A5577}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{610AEDFF-B525-4A78-8489-F5F126471862}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{DA04F6CB-59C9-4A81-8865-22DD59EFF49F}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{2CAF7992-27A0-418F-860C-2373533AF2BF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9086D98F-F4EF-4B97-BC66-991FF1AD62D7}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -1833,7 +2981,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2114,123 +3262,6 @@
       <c r="G21" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C2562B-8807-4C83-9323-6867A160C42C}">
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="I2" s="47">
-        <v>45647</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>319</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AB44A35B-FB2D-45F4-95B0-A540E16FCA4C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2289,7 +3320,7 @@
         <v>104</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J1" s="33" t="s">
         <v>82</v>
@@ -2303,7 +3334,7 @@
     </row>
     <row r="2" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="40" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -2369,7 +3400,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2431,16 +3462,16 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K6" s="3">
         <v>45585</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2524,7 +3555,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2761,7 +3792,7 @@
     </row>
     <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>88</v>
@@ -2872,21 +3903,21 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K21" s="3">
         <v>45590</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>2</v>
@@ -2911,13 +3942,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>126</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>1</v>
@@ -2926,7 +3957,7 @@
         <v>44</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G23" s="3">
         <v>45568</v>
@@ -2939,10 +3970,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>51</v>
@@ -2967,10 +3998,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>51</v>
@@ -2995,10 +4026,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>51</v>
@@ -3023,10 +4054,10 @@
     </row>
     <row r="27" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>40</v>
@@ -3044,21 +4075,21 @@
         <v>45572</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>40</v>
@@ -3083,10 +4114,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>40</v>
@@ -3104,30 +4135,30 @@
         <v>45573</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>11</v>
@@ -3136,7 +4167,7 @@
         <v>45577</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3145,13 +4176,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>1</v>
@@ -3166,24 +4197,24 @@
         <v>45578</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>1</v>
@@ -3198,24 +4229,24 @@
         <v>45579</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>1</v>
@@ -3230,7 +4261,7 @@
         <v>45579</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3239,13 +4270,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>1</v>
@@ -3260,24 +4291,24 @@
         <v>45580</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>1</v>
@@ -3292,24 +4323,24 @@
         <v>45580</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>1</v>
@@ -3326,26 +4357,26 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>11</v>
@@ -3356,26 +4387,26 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>11</v>
@@ -3386,20 +4417,20 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>1</v>
@@ -3416,20 +4447,20 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>1</v>
@@ -3444,24 +4475,24 @@
         <v>45586</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>1</v>
@@ -3476,7 +4507,7 @@
         <v>45587</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -3485,13 +4516,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>1</v>
@@ -3506,21 +4537,21 @@
         <v>45588</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>89</v>
@@ -3540,17 +4571,17 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>89</v>
@@ -3559,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>11</v>
@@ -3570,17 +4601,17 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>92</v>
@@ -3600,17 +4631,17 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>92</v>
@@ -3619,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>11</v>
@@ -3630,17 +4661,17 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>92</v>
@@ -3660,17 +4691,17 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>92</v>
@@ -3695,13 +4726,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>1</v>
@@ -3718,20 +4749,20 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>1</v>
@@ -3748,18 +4779,18 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>1</v>
@@ -3779,11 +4810,11 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>1</v>
@@ -3803,10 +4834,10 @@
     </row>
     <row r="53" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>57</v>
@@ -3815,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>14</v>
@@ -3826,26 +4857,26 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>14</v>
@@ -3855,23 +4886,23 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>1</v>
@@ -3888,22 +4919,22 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C58" s="23" t="s">
         <v>40</v>
@@ -3921,13 +4952,13 @@
         <v>45602</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K58" s="3">
         <v>45604</v>
@@ -3936,10 +4967,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C59" s="23" t="s">
         <v>40</v>
@@ -3958,7 +4989,7 @@
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3966,13 +4997,13 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>1</v>
@@ -3986,13 +5017,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>1</v>
@@ -4007,24 +5038,24 @@
         <v>45607</v>
       </c>
       <c r="H61" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I61" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J61" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>1</v>
@@ -4036,30 +5067,30 @@
         <v>45610</v>
       </c>
       <c r="H62" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I62" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J62" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>11</v>
@@ -4068,18 +5099,18 @@
         <v>45610</v>
       </c>
       <c r="H63" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C64" s="44" t="s">
         <v>2</v>
@@ -4094,10 +5125,10 @@
         <v>45623</v>
       </c>
       <c r="H64" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4156,706 +5187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68BFB48-6237-44A1-BCC7-17106A42F822}">
-  <dimension ref="A1:D48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
-        <v>45559</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
-        <v>45560</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
-        <v>45561</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
-        <v>45562</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
-        <v>45563</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
-        <v>45564</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
-        <v>45567</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
-        <v>45568</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
-        <v>45569</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>45570</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>45571</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
-        <v>45572</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
-        <v>45573</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>45574</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>45575</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>45576</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>45576</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
-        <v>45577</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
-        <v>45578</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
-        <v>45579</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
-        <v>45580</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="24">
-        <v>45581</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
-        <v>45582</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="24">
-        <v>45583</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
-        <v>45584</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
-        <v>45585</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
-        <v>45586</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
-        <v>45587</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
-        <v>45588</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
-        <v>45589</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
-        <v>45590</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
-        <v>45591</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
-        <v>45592</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
-        <v>45593</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="24">
-        <v>45594</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="24">
-        <v>45595</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="24">
-        <v>45596</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="24">
-        <v>45598</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="24">
-        <v>45599</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="24">
-        <v>45600</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="24">
-        <v>45601</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="24">
-        <v>45602</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
-        <v>45603</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="24">
-        <v>45604</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="24">
-        <v>45605</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="24">
-        <v>45607</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
-        <v>45623</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C05120-9C37-4754-BB74-8CFAB90E70C4}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4878,7 +5214,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>81</v>
@@ -4889,99 +5225,99 @@
     </row>
     <row r="3" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -4993,12 +5329,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87149C11-712F-4DC7-88E1-173FC55E9B04}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5008,7 +5344,7 @@
         <v>45</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>0</v>
@@ -5018,40 +5354,26 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
-        <v>45571</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
+      <c r="A3" s="24"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A334A5-B536-4271-BF4D-09433FEC1B29}">
   <dimension ref="H6:V15"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:L15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5062,187 +5384,176 @@
   </cols>
   <sheetData>
     <row r="6" spans="8:22" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="H6" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
+      <c r="H6" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
       <c r="V6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H8" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="U8" s="60"/>
+    </row>
+    <row r="9" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I9" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49" t="s">
+      <c r="N9" s="60"/>
+      <c r="O9" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H8" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="U8" s="49"/>
-    </row>
-    <row r="9" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="I9" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="U9" s="49"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="U9" s="60"/>
     </row>
     <row r="12" spans="8:22" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
-        <v>288</v>
-      </c>
-      <c r="M12" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
+        <v>284</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
       <c r="R12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="U13" s="60"/>
+    </row>
+    <row r="14" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I14" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49" t="s">
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="U13" s="49"/>
-    </row>
-    <row r="14" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="I14" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="U14" s="49"/>
+      <c r="U14" s="60"/>
     </row>
     <row r="15" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="I15" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="T15" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="U15" s="49"/>
+      <c r="I15" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="T15" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="U15" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="T7:U7"/>
@@ -5259,7 +5570,713 @@
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68BFB48-6237-44A1-BCC7-17106A42F822}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>45559</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>45560</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>45561</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>45562</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>45563</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>45564</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <v>45567</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <v>45568</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>45569</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>45570</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>45571</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>45572</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>45573</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>45574</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>45575</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>45576</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>45576</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>45577</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <v>45578</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>45579</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>45580</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>45581</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
+        <v>45582</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
+        <v>45583</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
+        <v>45584</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>45585</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
+        <v>45586</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <v>45587</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
+        <v>45588</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
+        <v>45589</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
+        <v>45590</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
+        <v>45591</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
+        <v>45592</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
+        <v>45593</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
+        <v>45594</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
+        <v>45595</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
+        <v>45596</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
+        <v>45598</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
+        <v>45599</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
+        <v>45600</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="24">
+        <v>45601</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="24">
+        <v>45602</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="24">
+        <v>45603</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
+        <v>45604</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="24">
+        <v>45605</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="24">
+        <v>45607</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
+        <v>45623</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>